--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936769</v>
+        <v>111936770</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489837.9886968454</v>
+        <v>489836.5464571039</v>
       </c>
       <c r="R2" t="n">
-        <v>7087500.341290037</v>
+        <v>7087463.372540069</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936770</v>
+        <v>111936772</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489836.5464571039</v>
+        <v>489837.4536452024</v>
       </c>
       <c r="R3" t="n">
-        <v>7087463.372540069</v>
+        <v>7087471.292509499</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936772</v>
+        <v>111936773</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489837.4536452024</v>
+        <v>490003.2216792626</v>
       </c>
       <c r="R4" t="n">
-        <v>7087471.292509499</v>
+        <v>7087487.484739743</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936773</v>
+        <v>111936769</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490003.2216792626</v>
+        <v>489837.9886968454</v>
       </c>
       <c r="R5" t="n">
-        <v>7087487.484739743</v>
+        <v>7087500.341290037</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936770</v>
+        <v>111936772</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489836.5464571039</v>
+        <v>489837.4536452024</v>
       </c>
       <c r="R2" t="n">
-        <v>7087463.372540069</v>
+        <v>7087471.292509499</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936772</v>
+        <v>111936770</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489837.4536452024</v>
+        <v>489836.5464571039</v>
       </c>
       <c r="R3" t="n">
-        <v>7087471.292509499</v>
+        <v>7087463.372540069</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936773</v>
+        <v>111936769</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490003.2216792626</v>
+        <v>489837.9886968454</v>
       </c>
       <c r="R4" t="n">
-        <v>7087487.484739743</v>
+        <v>7087500.341290037</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936769</v>
+        <v>111936773</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489837.9886968454</v>
+        <v>490003.2216792626</v>
       </c>
       <c r="R5" t="n">
-        <v>7087500.341290037</v>
+        <v>7087487.484739743</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936772</v>
+        <v>111936773</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489837.4536452024</v>
+        <v>490003.2216792626</v>
       </c>
       <c r="R2" t="n">
-        <v>7087471.292509499</v>
+        <v>7087487.484739743</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936770</v>
+        <v>111936769</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489836.5464571039</v>
+        <v>489837.9886968454</v>
       </c>
       <c r="R3" t="n">
-        <v>7087463.372540069</v>
+        <v>7087500.341290037</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936769</v>
+        <v>111936770</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489837.9886968454</v>
+        <v>489836.5464571039</v>
       </c>
       <c r="R4" t="n">
-        <v>7087500.341290037</v>
+        <v>7087463.372540069</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936773</v>
+        <v>111936772</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490003.2216792626</v>
+        <v>489837.4536452024</v>
       </c>
       <c r="R5" t="n">
-        <v>7087487.484739743</v>
+        <v>7087471.292509499</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936773</v>
+        <v>111936769</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490003.2216792626</v>
+        <v>489837.9886968454</v>
       </c>
       <c r="R2" t="n">
-        <v>7087487.484739743</v>
+        <v>7087500.341290037</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936769</v>
+        <v>111936773</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489837.9886968454</v>
+        <v>490003.2216792626</v>
       </c>
       <c r="R3" t="n">
-        <v>7087500.341290037</v>
+        <v>7087487.484739743</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936769</v>
+        <v>111936770</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489837.9886968454</v>
+        <v>489837</v>
       </c>
       <c r="R2" t="n">
-        <v>7087500.341290037</v>
+        <v>7087463</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,24 +757,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936773</v>
+        <v>111936772</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490003.2216792626</v>
+        <v>489837</v>
       </c>
       <c r="R3" t="n">
-        <v>7087487.484739743</v>
+        <v>7087471</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,24 +868,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936770</v>
+        <v>111936769</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489836.5464571039</v>
+        <v>489838</v>
       </c>
       <c r="R4" t="n">
-        <v>7087463.372540069</v>
+        <v>7087500</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,24 +979,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936772</v>
+        <v>111936773</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1087,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489837.4536452024</v>
+        <v>490003</v>
       </c>
       <c r="R5" t="n">
-        <v>7087471.292509499</v>
+        <v>7087487</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1120,24 +1090,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111936770</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936772</v>
+        <v>111936769</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489837</v>
+        <v>489838</v>
       </c>
       <c r="R3" t="n">
-        <v>7087471</v>
+        <v>7087500</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936769</v>
+        <v>111936772</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489838</v>
+        <v>489837</v>
       </c>
       <c r="R4" t="n">
-        <v>7087500</v>
+        <v>7087471</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,7 +1016,7 @@
         <v>111936773</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936770</v>
+        <v>111936773</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489837</v>
+        <v>490003</v>
       </c>
       <c r="R2" t="n">
-        <v>7087463</v>
+        <v>7087487</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936769</v>
+        <v>111936770</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489838</v>
+        <v>489837</v>
       </c>
       <c r="R3" t="n">
-        <v>7087500</v>
+        <v>7087463</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936773</v>
+        <v>111936769</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490003</v>
+        <v>489838</v>
       </c>
       <c r="R5" t="n">
-        <v>7087487</v>
+        <v>7087500</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 25285-2023.xlsx
+++ b/artfynd/A 25285-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111936773</v>
+        <v>111936769</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490003</v>
+        <v>489838</v>
       </c>
       <c r="R2" t="n">
-        <v>7087487</v>
+        <v>7087500</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111936770</v>
+        <v>111936773</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489837</v>
+        <v>490003</v>
       </c>
       <c r="R3" t="n">
-        <v>7087463</v>
+        <v>7087487</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936769</v>
+        <v>111936770</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489838</v>
+        <v>489837</v>
       </c>
       <c r="R5" t="n">
-        <v>7087500</v>
+        <v>7087463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
